--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/014_1v1推理表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/014_1v1推理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="VSCourt|1v1推理配置表" sheetId="1" r:id="rId1"/>
@@ -518,6 +518,9 @@
     <t>C2_mirror</t>
   </si>
   <si>
+    <t>土山奥辩论完成</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -551,12 +554,27 @@
     <t>2_为什么要来剧场？|2_观察形势</t>
   </si>
   <si>
+    <t>我想，如果你提到黑影的话，是来剧院找这样东西吧——</t>
+  </si>
+  <si>
+    <t>第二章_心灵遮断合金新|第二章_面具线索|第二章_剧院合照线索|第二章_日记本线索更新|第二章_水晶胸针</t>
+  </si>
+  <si>
+    <t>3_第二章_心灵遮断合金新|3_第二章_面具线索|3_第二章_剧院合照线索|3_第二章_日记本线索更新|3_第二章_水晶胸针</t>
+  </si>
+  <si>
+    <t>这并不完全是一段“快乐”时光，证据就是——</t>
+  </si>
+  <si>
     <t>第二章_傀儡娃娃|第二章_日记本线索更新|第二章_剧院合照线索|第二章_阿斯塔特晶体|第二章_番伞堂纪念照</t>
   </si>
   <si>
     <t>4_第二章_傀儡娃娃|4_第二章_日记本线索更新|4_第二章_剧院合照线索|4_第二章_阿斯塔特晶体|4_第二章_番伞堂纪念照</t>
   </si>
   <si>
+    <t>被财前收购后，得到更悲惨经历的证据是——</t>
+  </si>
+  <si>
     <t>第二章_日记本线索更新|第二章_带徽记的戒指|第二章_合同线索|第二章_傀儡娃娃|第二章_面具线索</t>
   </si>
   <si>
@@ -576,6 +594,9 @@
   </si>
   <si>
     <t>8_黑影的身形|8_黑影的配饰|8_黑影的发色</t>
+  </si>
+  <si>
+    <t>那么这个胸针，究竟是什么造就的呢？</t>
   </si>
   <si>
     <t>第二章_面具线索|第二章_带徽记的戒指|第二章_心灵遮断合金|第二章_阿斯塔特晶体|第二章_水晶胸针</t>
@@ -879,43 +900,15 @@
     <t>#0000FF</t>
   </si>
   <si>
-    <t>土山奥辩论完成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章_心灵遮断合金新|第二章_面具线索|第二章_剧院合照线索|第二章_日记本线索更新|第二章_水晶胸针</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_第二章_心灵遮断合金新|3_第二章_面具线索|3_第二章_剧院合照线索|3_第二章_日记本线索更新|3_第二章_水晶胸针</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想，如果你提到影子的话，你是来剧院找这样东西吧？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>这并不完全是一段“快乐”时光吧，证据是什么呢？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>被财前收购后，得到更悲惨经历的证据是？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>你所说的老朋友，应该是这个吧！</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>那么这个胸针，究竟是什么造就的呢？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>你所说的“另一个灵魂”，应该是这个吧！</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,7 +940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.79989013336588644"/>
+      <color theme="7" tint="0.79985961485641044"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -958,14 +951,6 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -995,6 +980,14 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1031,6 +1024,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1053,7 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39927365947447124"/>
+        <fgColor theme="3" tint="0.39924314096499525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1120,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,10 +1172,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,15 +1187,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1869,8 +1870,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2592,10 +2593,10 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>110</v>
       </c>
       <c r="Q21">
@@ -2632,10 +2633,10 @@
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>114</v>
       </c>
       <c r="Q23">
@@ -2749,10 +2750,10 @@
       <c r="J29">
         <v>9</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="11" t="s">
         <v>121</v>
       </c>
       <c r="Q29">
@@ -2769,7 +2770,7 @@
       <c r="J30">
         <v>10</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="11" t="s">
         <v>122</v>
       </c>
       <c r="S30" t="s">
@@ -2780,7 +2781,7 @@
       <c r="A31">
         <v>2300</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C31" t="s">
@@ -2795,14 +2796,14 @@
       <c r="F31" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>23</v>
       </c>
       <c r="U31" t="s">
         <v>126</v>
       </c>
-      <c r="V31" s="12" t="s">
-        <v>193</v>
+      <c r="V31" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="X31" t="s">
         <v>89</v>
@@ -2817,7 +2818,7 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>23</v>
       </c>
       <c r="H32"/>
@@ -2832,11 +2833,11 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="S32" s="12" t="s">
+      <c r="R32" s="11" t="s">
         <v>128</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="T32"/>
       <c r="U32"/>
@@ -2853,7 +2854,7 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>23</v>
       </c>
       <c r="H33"/>
@@ -2868,11 +2869,11 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S33" s="12" t="s">
+      <c r="R33" s="11" t="s">
         <v>130</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
@@ -2889,7 +2890,7 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>23</v>
       </c>
       <c r="H34"/>
@@ -2900,14 +2901,14 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>195</v>
+      <c r="N34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="Q34"/>
       <c r="T34"/>
@@ -2925,7 +2926,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>23</v>
       </c>
       <c r="H35"/>
@@ -2936,14 +2937,14 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>132</v>
+      <c r="N35" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="Q35"/>
       <c r="R35"/>
@@ -2963,7 +2964,7 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>23</v>
       </c>
       <c r="H36"/>
@@ -2974,14 +2975,14 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>134</v>
+      <c r="N36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -3001,7 +3002,7 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>23</v>
       </c>
       <c r="H37"/>
@@ -3016,11 +3017,11 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>135</v>
+      <c r="R37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
@@ -3037,7 +3038,7 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>23</v>
       </c>
       <c r="H38"/>
@@ -3048,14 +3049,14 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>137</v>
+      <c r="N38" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="Q38"/>
       <c r="R38"/>
@@ -3075,7 +3076,7 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>23</v>
       </c>
       <c r="H39"/>
@@ -3090,11 +3091,11 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>139</v>
+      <c r="R39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="T39"/>
       <c r="U39"/>
@@ -3111,7 +3112,7 @@
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>23</v>
       </c>
       <c r="H40"/>
@@ -3122,14 +3123,14 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>141</v>
+      <c r="N40" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="Q40"/>
       <c r="T40"/>
@@ -3147,7 +3148,7 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>23</v>
       </c>
       <c r="H41"/>
@@ -3162,11 +3163,11 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>143</v>
+      <c r="R41" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="T41"/>
       <c r="U41"/>
@@ -3183,7 +3184,7 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>23</v>
       </c>
       <c r="H42"/>
@@ -3198,11 +3199,11 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>145</v>
+      <c r="R42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="T42"/>
       <c r="U42"/>
@@ -3219,7 +3220,7 @@
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>23</v>
       </c>
       <c r="H43"/>
@@ -3231,14 +3232,14 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
       <c r="Q43"/>
-      <c r="R43" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>147</v>
+      <c r="R43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="T43"/>
       <c r="U43"/>
@@ -3247,40 +3248,40 @@
       <c r="X43"/>
     </row>
     <row r="44" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>3000</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>30</v>
       </c>
       <c r="H44"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="13"/>
       <c r="U44" s="11" t="s">
         <v>86</v>
       </c>
@@ -3293,425 +3294,425 @@
       </c>
     </row>
     <row r="45" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>3001</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16">
         <v>30</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
         <v>1</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="S45" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="T45" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
     </row>
     <row r="46" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>3002</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16">
         <v>30</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
         <v>2</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="T46" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="T46" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
     </row>
     <row r="47" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>3003</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16">
         <v>30</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
         <v>3</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="S47" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="S47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="T47" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
     </row>
     <row r="48" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>3004</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16">
         <v>30</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15">
         <v>4</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="S48" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="T48" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="S48" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T48" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
     </row>
     <row r="49" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>3005</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16">
         <v>30</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15">
         <v>5</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="S49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="T49" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T49" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
     </row>
     <row r="50" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>3006</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16">
         <v>30</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15">
         <v>6</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
     </row>
     <row r="51" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>3007</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16">
         <v>30</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16">
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15">
         <v>7</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
     </row>
     <row r="52" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>3008</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16">
         <v>30</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16">
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15">
         <v>8</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
     </row>
     <row r="53" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>3009</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16">
         <v>30</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15">
         <v>9</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
     </row>
     <row r="54" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>3010</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16">
         <v>30</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16">
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15">
         <v>10</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
     </row>
     <row r="55" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>3011</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16">
         <v>30</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15">
         <v>11</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-      <c r="X55" s="16"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
     </row>
     <row r="56" spans="1:24" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>3012</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16">
         <v>30</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15">
         <v>12</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>900000</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
@@ -3730,10 +3731,10 @@
       </c>
       <c r="H57" s="10"/>
       <c r="U57" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="W57" s="11" t="s">
         <v>88</v>
@@ -3754,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="R58" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="S58" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
@@ -3772,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="S59" t="s">
         <v>93</v>
@@ -3790,10 +3791,10 @@
         <v>3</v>
       </c>
       <c r="R60" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="S60" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
@@ -3808,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="R61" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="S61" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
@@ -3826,14 +3827,14 @@
         <v>5</v>
       </c>
       <c r="R62" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="S62" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -3863,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3883,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3926,10 +3927,10 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -3943,10 +3944,10 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3957,20 +3958,20 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>